--- a/data/trans_orig/IP28-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP28-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{619A6389-CD72-4847-9B10-64C9FAE78C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5433592-B19C-4EBE-A944-CE4CE6EC06AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{92306B21-C136-4E7F-8567-191D1114AC1B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1A6D4A15-81CC-4D9B-BDF7-8E4797A6CF48}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,36 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Bastante mayor de lo normal</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
     <t>Algo mayor de lo normal</t>
   </si>
   <si>
@@ -101,34 +131,34 @@
     <t>4,44%</t>
   </si>
   <si>
-    <t>Bastante mayor de lo normal</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>Menor de lo normal</t>
@@ -161,42 +191,138 @@
     <t>5,84%</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
     <t>11,03%</t>
   </si>
   <si>
@@ -224,31 +350,31 @@
     <t>12,91%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>11,2%</t>
@@ -278,130 +404,22 @@
     <t>11,73%</t>
   </si>
   <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>7,92%</t>
@@ -428,22 +446,31 @@
     <t>9,19%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
   </si>
   <si>
     <t>7,7%</t>
@@ -467,36 +494,27 @@
     <t>8,37%</t>
   </si>
   <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
     <t>Menores según la relación peso/altura en 2012 (Tasa respuesta: 91,33%)</t>
   </si>
   <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
     <t>3,16%</t>
   </si>
   <si>
@@ -524,22 +542,31 @@
     <t>4,88%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>2,67%</t>
@@ -566,31 +593,115 @@
     <t>5,75%</t>
   </si>
   <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>14,67%</t>
@@ -620,25 +731,31 @@
     <t>18,4%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
   </si>
   <si>
     <t>11,63%</t>
@@ -665,121 +782,25 @@
     <t>8,38%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>8,97%</t>
@@ -809,25 +830,25 @@
     <t>11,44%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>7,55%</t>
@@ -857,30 +878,27 @@
     <t>8,41%</t>
   </si>
   <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
     <t>Menores según la relación peso/altura en 2015 (Tasa respuesta: 89,7%)</t>
   </si>
   <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
     <t>3,5%</t>
   </si>
   <si>
@@ -905,22 +923,28 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -947,28 +971,127 @@
     <t>3,87%</t>
   </si>
   <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>11,72%</t>
@@ -998,31 +1121,28 @@
     <t>13,59%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
   </si>
   <si>
     <t>9,2%</t>
@@ -1043,124 +1163,22 @@
     <t>5,25%</t>
   </si>
   <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>6,96%</t>
@@ -1190,22 +1208,28 @@
     <t>8,31%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>4,59%</t>
@@ -1226,33 +1250,21 @@
     <t>3,97%</t>
   </si>
   <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
     <t>Menores según la relación peso/altura en 2023 (Tasa respuesta: 99,53%)</t>
   </si>
   <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
     <t>3,3%</t>
   </si>
   <si>
@@ -1274,16 +1286,31 @@
     <t>6,46%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
   <si>
     <t>4,68%</t>
@@ -1304,31 +1331,106 @@
     <t>5,68%</t>
   </si>
   <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>8,02%</t>
@@ -1349,25 +1451,31 @@
     <t>10,81%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
   </si>
   <si>
     <t>11,88%</t>
@@ -1391,112 +1499,22 @@
     <t>9,02%</t>
   </si>
   <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>7,64%</t>
@@ -1517,22 +1535,31 @@
     <t>8,87%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
   </si>
   <si>
     <t>9,03%</t>
@@ -1554,33 +1581,6 @@
   </si>
   <si>
     <t>10,39%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
   </si>
 </sst>
 </file>
@@ -1972,7 +1972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A2E44C-DE06-4E58-BEB1-EEC7B2F0BE45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404FDBF7-A609-416F-B65F-A5F97147FE38}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2090,10 +2090,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>6013</v>
+        <v>1287</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2105,10 +2105,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>6347</v>
+        <v>2032</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2120,10 +2120,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>12359</v>
+        <v>3319</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2141,10 +2141,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>1287</v>
+        <v>6013</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2156,10 +2156,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>2032</v>
+        <v>6347</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2171,10 +2171,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>3319</v>
+        <v>12359</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2192,10 +2192,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>302</v>
       </c>
       <c r="D6" s="7">
-        <v>9276</v>
+        <v>201999</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2207,10 +2207,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="I6" s="7">
-        <v>8017</v>
+        <v>187653</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2222,10 +2222,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>27</v>
+        <v>587</v>
       </c>
       <c r="N6" s="7">
-        <v>17294</v>
+        <v>389653</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2243,10 +2243,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>201999</v>
+        <v>9276</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2258,10 +2258,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>285</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>187653</v>
+        <v>8017</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2273,10 +2273,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>587</v>
+        <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>389653</v>
+        <v>17294</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2347,49 +2347,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>30991</v>
+        <v>2120</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1557</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="7">
-        <v>40</v>
-      </c>
-      <c r="I9" s="7">
-        <v>27234</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>5</v>
+      </c>
+      <c r="N9" s="7">
+        <v>3677</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="7">
-        <v>87</v>
-      </c>
-      <c r="N9" s="7">
-        <v>58225</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,49 +2398,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>5404</v>
+        <v>19641</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>30</v>
+      </c>
+      <c r="I10" s="7">
+        <v>19920</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5243</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>60</v>
+      </c>
+      <c r="N10" s="7">
+        <v>39561</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="7">
-        <v>16</v>
-      </c>
-      <c r="N10" s="7">
-        <v>10647</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,49 +2449,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="D11" s="7">
-        <v>31460</v>
+        <v>179888</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>250</v>
+      </c>
+      <c r="I11" s="7">
+        <v>168390</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="7">
-        <v>32</v>
-      </c>
-      <c r="I11" s="7">
-        <v>21201</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>522</v>
+      </c>
+      <c r="N11" s="7">
+        <v>348278</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="7">
-        <v>79</v>
-      </c>
-      <c r="N11" s="7">
-        <v>52660</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,49 +2500,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>213161</v>
+        <v>14379</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>19</v>
+      </c>
+      <c r="I12" s="7">
+        <v>13546</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="7">
-        <v>310</v>
-      </c>
-      <c r="I12" s="7">
-        <v>209372</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>41</v>
+      </c>
+      <c r="N12" s="7">
+        <v>27925</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="7">
-        <v>629</v>
-      </c>
-      <c r="N12" s="7">
-        <v>422533</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,10 +2551,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>421</v>
+        <v>327</v>
       </c>
       <c r="D13" s="7">
-        <v>281015</v>
+        <v>216028</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2566,10 +2566,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>390</v>
+        <v>301</v>
       </c>
       <c r="I13" s="7">
-        <v>263050</v>
+        <v>203413</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2581,10 +2581,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>811</v>
+        <v>628</v>
       </c>
       <c r="N13" s="7">
-        <v>544065</v>
+        <v>419441</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2598,55 +2598,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>19641</v>
+        <v>5404</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5243</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>16</v>
+      </c>
+      <c r="N14" s="7">
+        <v>10647</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="7">
-        <v>30</v>
-      </c>
-      <c r="I14" s="7">
-        <v>19920</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="7">
-        <v>60</v>
-      </c>
-      <c r="N14" s="7">
-        <v>39561</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,49 +2655,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>2120</v>
+        <v>30991</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="7">
+        <v>40</v>
+      </c>
+      <c r="I15" s="7">
+        <v>27234</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="7">
-        <v>2</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1557</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>87</v>
+      </c>
+      <c r="N15" s="7">
+        <v>58225</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M15" s="7">
-        <v>5</v>
-      </c>
-      <c r="N15" s="7">
-        <v>3677</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,43 +2706,43 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="D16" s="7">
-        <v>14379</v>
+        <v>213161</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>310</v>
+      </c>
+      <c r="I16" s="7">
+        <v>209372</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="7">
-        <v>19</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13546</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>629</v>
+      </c>
+      <c r="N16" s="7">
+        <v>422533</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="M16" s="7">
-        <v>41</v>
-      </c>
-      <c r="N16" s="7">
-        <v>27925</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>110</v>
@@ -2757,10 +2757,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>272</v>
+        <v>47</v>
       </c>
       <c r="D17" s="7">
-        <v>179888</v>
+        <v>31460</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>112</v>
@@ -2772,10 +2772,10 @@
         <v>114</v>
       </c>
       <c r="H17" s="7">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="I17" s="7">
-        <v>168390</v>
+        <v>21201</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>115</v>
@@ -2787,10 +2787,10 @@
         <v>117</v>
       </c>
       <c r="M17" s="7">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="N17" s="7">
-        <v>348278</v>
+        <v>52660</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>118</v>
@@ -2808,10 +2808,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>327</v>
+        <v>421</v>
       </c>
       <c r="D18" s="7">
-        <v>216028</v>
+        <v>281015</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2823,10 +2823,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="I18" s="7">
-        <v>203413</v>
+        <v>263050</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2838,10 +2838,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>628</v>
+        <v>811</v>
       </c>
       <c r="N18" s="7">
-        <v>419441</v>
+        <v>544065</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2861,10 +2861,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>56644</v>
+        <v>8810</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>121</v>
@@ -2873,37 +2873,37 @@
         <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="7">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7">
+        <v>8832</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="7">
-        <v>80</v>
-      </c>
-      <c r="I19" s="7">
-        <v>53501</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="7">
+        <v>26</v>
+      </c>
+      <c r="N19" s="7">
+        <v>17642</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="7">
-        <v>166</v>
-      </c>
-      <c r="N19" s="7">
-        <v>110146</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,40 +2912,40 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D20" s="7">
-        <v>8810</v>
+        <v>56644</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>80</v>
+      </c>
+      <c r="I20" s="7">
+        <v>53501</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="7">
-        <v>13</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8832</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="K20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M20" s="7">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="N20" s="7">
-        <v>17642</v>
+        <v>110146</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>132</v>
@@ -2963,49 +2963,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>83</v>
+        <v>893</v>
       </c>
       <c r="D21" s="7">
-        <v>55115</v>
+        <v>595048</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
-        <v>64</v>
+        <v>845</v>
       </c>
       <c r="I21" s="7">
-        <v>42764</v>
+        <v>565416</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
-        <v>147</v>
+        <v>1738</v>
       </c>
       <c r="N21" s="7">
-        <v>97879</v>
+        <v>1160463</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,40 +3014,40 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>893</v>
+        <v>83</v>
       </c>
       <c r="D22" s="7">
-        <v>595048</v>
+        <v>55115</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
-        <v>845</v>
+        <v>64</v>
       </c>
       <c r="I22" s="7">
-        <v>565416</v>
+        <v>42764</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="7">
         <v>147</v>
       </c>
-      <c r="M22" s="7">
-        <v>1738</v>
-      </c>
       <c r="N22" s="7">
-        <v>1160463</v>
+        <v>97879</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3126,7 +3126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD253BC0-C08B-42E7-BB4B-2CC87118E1FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5008D1-BBA0-4C48-ABDA-C4D0F2BFE51C}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3244,10 +3244,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>6798</v>
+        <v>2746</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>152</v>
@@ -3259,34 +3259,34 @@
         <v>154</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>6163</v>
+        <v>1444</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4191</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="M4" s="7">
-        <v>19</v>
-      </c>
-      <c r="N4" s="7">
-        <v>12961</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,46 +3295,46 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>2746</v>
+        <v>6798</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="7">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6163</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1444</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>19</v>
+      </c>
+      <c r="N5" s="7">
+        <v>12961</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="M5" s="7">
-        <v>6</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4191</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>166</v>
@@ -3346,10 +3346,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="D6" s="7">
-        <v>5735</v>
+        <v>199602</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>167</v>
@@ -3361,10 +3361,10 @@
         <v>169</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="I6" s="7">
-        <v>10317</v>
+        <v>186913</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>170</v>
@@ -3376,19 +3376,19 @@
         <v>172</v>
       </c>
       <c r="M6" s="7">
-        <v>25</v>
+        <v>561</v>
       </c>
       <c r="N6" s="7">
-        <v>16052</v>
+        <v>386516</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>173</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,46 +3397,46 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>281</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>199602</v>
+        <v>5735</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>186913</v>
+        <v>10317</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>561</v>
+        <v>25</v>
       </c>
       <c r="N7" s="7">
-        <v>386516</v>
+        <v>16052</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>183</v>
@@ -3501,49 +3501,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>37098</v>
+        <v>1448</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2226</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="7">
-        <v>56</v>
-      </c>
-      <c r="I9" s="7">
-        <v>39192</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>5</v>
+      </c>
+      <c r="N9" s="7">
+        <v>3675</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M9" s="7">
-        <v>109</v>
-      </c>
-      <c r="N9" s="7">
-        <v>76290</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="P9" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,49 +3552,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>7224</v>
+        <v>17969</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="7">
+        <v>36</v>
+      </c>
+      <c r="I10" s="7">
+        <v>26522</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>61</v>
+      </c>
+      <c r="N10" s="7">
+        <v>44491</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H10" s="7">
-        <v>13</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9381</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="7">
-        <v>24</v>
-      </c>
-      <c r="N10" s="7">
-        <v>16605</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,49 +3603,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="D11" s="7">
-        <v>29401</v>
+        <v>185269</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>229</v>
+      </c>
+      <c r="I11" s="7">
+        <v>162846</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H11" s="7">
-        <v>33</v>
-      </c>
-      <c r="I11" s="7">
-        <v>22459</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>486</v>
+      </c>
+      <c r="N11" s="7">
+        <v>348115</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="M11" s="7">
-        <v>77</v>
-      </c>
-      <c r="N11" s="7">
-        <v>51860</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,49 +3654,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>266</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>179136</v>
+        <v>16900</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="7">
+        <v>16</v>
+      </c>
+      <c r="I12" s="7">
+        <v>11303</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H12" s="7">
-        <v>239</v>
-      </c>
-      <c r="I12" s="7">
-        <v>167591</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>39</v>
+      </c>
+      <c r="N12" s="7">
+        <v>28203</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="M12" s="7">
-        <v>505</v>
-      </c>
-      <c r="N12" s="7">
-        <v>346727</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,10 +3705,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>374</v>
+        <v>307</v>
       </c>
       <c r="D13" s="7">
-        <v>252860</v>
+        <v>221587</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -3720,10 +3720,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="I13" s="7">
-        <v>238623</v>
+        <v>202897</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -3735,10 +3735,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>715</v>
+        <v>591</v>
       </c>
       <c r="N13" s="7">
-        <v>491483</v>
+        <v>424484</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -3752,55 +3752,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>17969</v>
+        <v>7224</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="7">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7">
+        <v>9381</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="7">
+        <v>24</v>
+      </c>
+      <c r="N14" s="7">
+        <v>16605</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H14" s="7">
-        <v>36</v>
-      </c>
-      <c r="I14" s="7">
-        <v>26522</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M14" s="7">
-        <v>61</v>
-      </c>
-      <c r="N14" s="7">
-        <v>44491</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,49 +3809,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D15" s="7">
-        <v>1448</v>
+        <v>37098</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="7">
+        <v>56</v>
+      </c>
+      <c r="I15" s="7">
+        <v>39192</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H15" s="7">
-        <v>3</v>
-      </c>
-      <c r="I15" s="7">
-        <v>2226</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>109</v>
+      </c>
+      <c r="N15" s="7">
+        <v>76290</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M15" s="7">
-        <v>5</v>
-      </c>
-      <c r="N15" s="7">
-        <v>3675</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>228</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,25 +3860,25 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="D16" s="7">
-        <v>16900</v>
+        <v>179136</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="I16" s="7">
-        <v>11303</v>
+        <v>167591</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>233</v>
@@ -3890,19 +3890,19 @@
         <v>235</v>
       </c>
       <c r="M16" s="7">
-        <v>39</v>
+        <v>505</v>
       </c>
       <c r="N16" s="7">
-        <v>28203</v>
+        <v>346727</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,49 +3911,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7">
-        <v>185269</v>
+        <v>29401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="I17" s="7">
-        <v>162846</v>
+        <v>22459</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
-        <v>486</v>
+        <v>77</v>
       </c>
       <c r="N17" s="7">
-        <v>348115</v>
+        <v>51860</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,10 +3962,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>307</v>
+        <v>374</v>
       </c>
       <c r="D18" s="7">
-        <v>221587</v>
+        <v>252860</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -3977,10 +3977,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="I18" s="7">
-        <v>202897</v>
+        <v>238623</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -3992,10 +3992,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>591</v>
+        <v>715</v>
       </c>
       <c r="N18" s="7">
-        <v>424484</v>
+        <v>491483</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -4015,49 +4015,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>61866</v>
+        <v>11419</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>18</v>
+      </c>
+      <c r="I19" s="7">
+        <v>13052</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H19" s="7">
-        <v>101</v>
-      </c>
-      <c r="I19" s="7">
-        <v>71876</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>35</v>
+      </c>
+      <c r="N19" s="7">
+        <v>24471</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="M19" s="7">
-        <v>189</v>
-      </c>
-      <c r="N19" s="7">
-        <v>133742</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,28 +4066,28 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="D20" s="7">
-        <v>11419</v>
+        <v>61866</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>101</v>
+      </c>
+      <c r="I20" s="7">
+        <v>71876</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="H20" s="7">
-        <v>18</v>
-      </c>
-      <c r="I20" s="7">
-        <v>13052</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>258</v>
@@ -4096,10 +4096,10 @@
         <v>259</v>
       </c>
       <c r="M20" s="7">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="N20" s="7">
-        <v>24471</v>
+        <v>133742</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>260</v>
@@ -4117,49 +4117,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>76</v>
+        <v>804</v>
       </c>
       <c r="D21" s="7">
-        <v>52037</v>
+        <v>564009</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>263</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>748</v>
+      </c>
+      <c r="I21" s="7">
+        <v>517350</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H21" s="7">
-        <v>65</v>
-      </c>
-      <c r="I21" s="7">
-        <v>44079</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>1552</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1081358</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="M21" s="7">
-        <v>141</v>
-      </c>
-      <c r="N21" s="7">
-        <v>96115</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,46 +4168,46 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>804</v>
+        <v>76</v>
       </c>
       <c r="D22" s="7">
-        <v>564009</v>
+        <v>52037</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>65</v>
+      </c>
+      <c r="I22" s="7">
+        <v>44079</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H22" s="7">
-        <v>748</v>
-      </c>
-      <c r="I22" s="7">
-        <v>517350</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>141</v>
+      </c>
+      <c r="N22" s="7">
+        <v>96115</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="M22" s="7">
-        <v>1552</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1081358</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>278</v>
@@ -4280,7 +4280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344D131D-C757-4D2E-BBAA-2B77645B0CC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE068C2D-F477-4D04-9492-54A94E19F363}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4398,49 +4398,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6653</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1179</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H4" s="7">
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7">
-        <v>7058</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1179</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="M4" s="7">
-        <v>22</v>
-      </c>
-      <c r="N4" s="7">
-        <v>13710</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,46 +4449,46 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>6653</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" s="7">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7058</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M5" s="7">
         <v>22</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1179</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="N5" s="7">
+        <v>13710</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1179</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>293</v>
@@ -4500,25 +4500,25 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>271</v>
       </c>
       <c r="D6" s="7">
-        <v>2982</v>
+        <v>180408</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>295</v>
       </c>
       <c r="H6" s="7">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="I6" s="7">
-        <v>5703</v>
+        <v>165781</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>296</v>
@@ -4530,10 +4530,10 @@
         <v>298</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>539</v>
       </c>
       <c r="N6" s="7">
-        <v>8685</v>
+        <v>346188</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>299</v>
@@ -4551,25 +4551,25 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>271</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>180408</v>
+        <v>2982</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>303</v>
       </c>
       <c r="H7" s="7">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>165781</v>
+        <v>5703</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>304</v>
@@ -4581,10 +4581,10 @@
         <v>306</v>
       </c>
       <c r="M7" s="7">
-        <v>539</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>346188</v>
+        <v>8685</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>307</v>
@@ -4655,10 +4655,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>30071</v>
+        <v>2588</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>310</v>
@@ -4670,34 +4670,34 @@
         <v>312</v>
       </c>
       <c r="H9" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>25285</v>
+        <v>2031</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>313</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>7</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4619</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="M9" s="7">
-        <v>77</v>
-      </c>
-      <c r="N9" s="7">
-        <v>55356</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,49 +4706,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>4073</v>
+        <v>9741</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>23</v>
+      </c>
+      <c r="I10" s="7">
+        <v>14069</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3162</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>38</v>
+      </c>
+      <c r="N10" s="7">
+        <v>23810</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="M10" s="7">
-        <v>11</v>
-      </c>
-      <c r="N10" s="7">
-        <v>7235</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,49 +4757,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c r="D11" s="7">
-        <v>23608</v>
+        <v>195646</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H11" s="7">
+        <v>287</v>
+      </c>
+      <c r="I11" s="7">
+        <v>188391</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H11" s="7">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7">
-        <v>11819</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>570</v>
+      </c>
+      <c r="N11" s="7">
+        <v>384037</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="M11" s="7">
-        <v>50</v>
-      </c>
-      <c r="N11" s="7">
-        <v>35427</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,10 +4808,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>198803</v>
+        <v>12825</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>334</v>
@@ -4823,34 +4823,34 @@
         <v>336</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>201985</v>
+        <v>6760</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>337</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>239</v>
+        <v>338</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M12" s="7">
-        <v>548</v>
+        <v>28</v>
       </c>
       <c r="N12" s="7">
-        <v>400788</v>
+        <v>19586</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,10 +4859,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="D13" s="7">
-        <v>256555</v>
+        <v>220801</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -4874,10 +4874,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="I13" s="7">
-        <v>242251</v>
+        <v>211251</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -4889,10 +4889,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>686</v>
+        <v>643</v>
       </c>
       <c r="N13" s="7">
-        <v>498806</v>
+        <v>432052</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -4906,55 +4906,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>9741</v>
+        <v>4073</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>14069</v>
+        <v>3162</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>105</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="N14" s="7">
-        <v>23810</v>
+        <v>7235</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,49 +4963,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7">
-        <v>2588</v>
+        <v>30071</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7">
-        <v>2031</v>
+        <v>25285</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>355</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M15" s="7">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="N15" s="7">
-        <v>4619</v>
+        <v>55356</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,49 +5014,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="D16" s="7">
-        <v>12825</v>
+        <v>198803</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="I16" s="7">
-        <v>6760</v>
+        <v>201985</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>360</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
-        <v>28</v>
+        <v>548</v>
       </c>
       <c r="N16" s="7">
-        <v>19586</v>
+        <v>400788</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,49 +5065,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>283</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7">
-        <v>195646</v>
+        <v>23608</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
-        <v>287</v>
+        <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>188391</v>
+        <v>11819</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>368</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>369</v>
+        <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M17" s="7">
-        <v>570</v>
+        <v>50</v>
       </c>
       <c r="N17" s="7">
-        <v>384037</v>
+        <v>35427</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,10 +5116,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="D18" s="7">
-        <v>220801</v>
+        <v>256555</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -5131,10 +5131,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="I18" s="7">
-        <v>211251</v>
+        <v>242251</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -5146,10 +5146,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>643</v>
+        <v>686</v>
       </c>
       <c r="N18" s="7">
-        <v>432052</v>
+        <v>498806</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -5169,49 +5169,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>46465</v>
+        <v>6661</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7">
+        <v>6372</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="H19" s="7">
-        <v>72</v>
-      </c>
-      <c r="I19" s="7">
-        <v>46411</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" s="7">
+        <v>20</v>
+      </c>
+      <c r="N19" s="7">
+        <v>13033</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="M19" s="7">
-        <v>137</v>
-      </c>
-      <c r="N19" s="7">
-        <v>92876</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,43 +5220,43 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D20" s="7">
-        <v>6661</v>
+        <v>46465</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>24</v>
+        <v>380</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H20" s="7">
+        <v>72</v>
+      </c>
+      <c r="I20" s="7">
+        <v>46411</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="H20" s="7">
-        <v>10</v>
-      </c>
-      <c r="I20" s="7">
-        <v>6372</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>137</v>
+      </c>
+      <c r="N20" s="7">
+        <v>92876</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M20" s="7">
-        <v>20</v>
-      </c>
-      <c r="N20" s="7">
-        <v>13033</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>387</v>
@@ -5271,13 +5271,13 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>56</v>
+        <v>822</v>
       </c>
       <c r="D21" s="7">
-        <v>39415</v>
+        <v>574856</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>389</v>
@@ -5286,10 +5286,10 @@
         <v>390</v>
       </c>
       <c r="H21" s="7">
-        <v>37</v>
+        <v>835</v>
       </c>
       <c r="I21" s="7">
-        <v>24282</v>
+        <v>556157</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>391</v>
@@ -5301,19 +5301,19 @@
         <v>393</v>
       </c>
       <c r="M21" s="7">
-        <v>93</v>
+        <v>1657</v>
       </c>
       <c r="N21" s="7">
-        <v>63697</v>
+        <v>1131013</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>394</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>282</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,49 +5322,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>822</v>
+        <v>56</v>
       </c>
       <c r="D22" s="7">
-        <v>574856</v>
+        <v>39415</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H22" s="7">
-        <v>835</v>
+        <v>37</v>
       </c>
       <c r="I22" s="7">
-        <v>556157</v>
+        <v>24282</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7">
-        <v>1657</v>
+        <v>93</v>
       </c>
       <c r="N22" s="7">
-        <v>1131013</v>
+        <v>63697</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>400</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>402</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,7 +5434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB127F49-F37D-4F18-ACE4-441519756CCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB176F1-4238-4BB1-86EB-ECBE8F530D64}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5552,49 +5552,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>7098</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>159</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1919</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>159</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="M4" s="7">
-        <v>18</v>
-      </c>
-      <c r="N4" s="7">
-        <v>9016</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,46 +5603,46 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>7098</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>288</v>
+        <v>408</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1919</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>159</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>159</v>
+        <v>9016</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>414</v>
@@ -5654,49 +5654,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>2414</v>
+        <v>107133</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>166</v>
+        <v>415</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="I6" s="7">
-        <v>4800</v>
+        <v>96925</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>391</v>
       </c>
       <c r="N6" s="7">
-        <v>7214</v>
+        <v>204059</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>281</v>
+        <v>422</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,46 +5705,46 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>107133</v>
+        <v>2414</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>421</v>
+        <v>157</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>422</v>
+        <v>349</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H7" s="7">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>96925</v>
+        <v>4800</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M7" s="7">
-        <v>391</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>204059</v>
+        <v>7214</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>428</v>
+        <v>287</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>429</v>
@@ -5809,49 +5809,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>32112</v>
+        <v>1348</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>703</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>3</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2051</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="H9" s="7">
-        <v>40</v>
-      </c>
-      <c r="I9" s="7">
-        <v>29958</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="P9" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M9" s="7">
-        <v>73</v>
-      </c>
-      <c r="N9" s="7">
-        <v>62069</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,49 +5860,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>5811</v>
+        <v>15951</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>325</v>
+        <v>433</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H10" s="7">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7">
+        <v>11566</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8738</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M10" s="7">
+        <v>37</v>
+      </c>
+      <c r="N10" s="7">
+        <v>27517</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="M10" s="7">
-        <v>18</v>
-      </c>
-      <c r="N10" s="7">
-        <v>14549</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,49 +5911,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>47563</v>
+        <v>172515</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H11" s="7">
+        <v>241</v>
+      </c>
+      <c r="I11" s="7">
+        <v>168167</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="H11" s="7">
-        <v>50</v>
-      </c>
-      <c r="I11" s="7">
-        <v>34571</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>470</v>
+      </c>
+      <c r="N11" s="7">
+        <v>340683</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="M11" s="7">
-        <v>108</v>
-      </c>
-      <c r="N11" s="7">
-        <v>82134</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,49 +5962,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>378</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>314940</v>
+        <v>15242</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>24</v>
+      </c>
+      <c r="I12" s="7">
+        <v>17830</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="H12" s="7">
-        <v>359</v>
-      </c>
-      <c r="I12" s="7">
-        <v>274744</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>42</v>
+      </c>
+      <c r="N12" s="7">
+        <v>33072</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="M12" s="7">
-        <v>737</v>
-      </c>
-      <c r="N12" s="7">
-        <v>589685</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,10 +6013,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>477</v>
+        <v>271</v>
       </c>
       <c r="D13" s="7">
-        <v>400426</v>
+        <v>205055</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -6028,10 +6028,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>459</v>
+        <v>281</v>
       </c>
       <c r="I13" s="7">
-        <v>348011</v>
+        <v>198267</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -6043,10 +6043,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>936</v>
+        <v>552</v>
       </c>
       <c r="N13" s="7">
-        <v>748437</v>
+        <v>403323</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -6060,55 +6060,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>15951</v>
+        <v>5811</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7">
+        <v>8738</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="H14" s="7">
-        <v>15</v>
-      </c>
-      <c r="I14" s="7">
-        <v>11566</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>18</v>
+      </c>
+      <c r="N14" s="7">
+        <v>14549</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M14" s="7">
-        <v>37</v>
-      </c>
-      <c r="N14" s="7">
-        <v>27517</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,49 +6117,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7">
-        <v>1348</v>
+        <v>32112</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>291</v>
+        <v>465</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I15" s="7">
-        <v>703</v>
+        <v>29958</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>466</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>466</v>
+        <v>191</v>
       </c>
       <c r="M15" s="7">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="N15" s="7">
-        <v>2051</v>
+        <v>62069</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>467</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,49 +6168,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>378</v>
       </c>
       <c r="D16" s="7">
-        <v>15242</v>
+        <v>314940</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H16" s="7">
-        <v>24</v>
+        <v>359</v>
       </c>
       <c r="I16" s="7">
-        <v>17830</v>
+        <v>274744</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>237</v>
+        <v>473</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M16" s="7">
-        <v>42</v>
+        <v>737</v>
       </c>
       <c r="N16" s="7">
-        <v>33072</v>
+        <v>589685</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,49 +6219,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7">
-        <v>172515</v>
+        <v>47563</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H17" s="7">
-        <v>241</v>
+        <v>50</v>
       </c>
       <c r="I17" s="7">
-        <v>168167</v>
+        <v>34571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>481</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M17" s="7">
-        <v>470</v>
+        <v>108</v>
       </c>
       <c r="N17" s="7">
-        <v>340683</v>
+        <v>82134</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>485</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,10 +6270,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>271</v>
+        <v>477</v>
       </c>
       <c r="D18" s="7">
-        <v>205055</v>
+        <v>400426</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -6285,10 +6285,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>459</v>
       </c>
       <c r="I18" s="7">
-        <v>198267</v>
+        <v>348011</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -6300,10 +6300,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="N18" s="7">
-        <v>403323</v>
+        <v>748437</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -6323,49 +6323,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>55160</v>
+        <v>7158</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>486</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>487</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H19" s="7">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>43442</v>
+        <v>9601</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>490</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="N19" s="7">
-        <v>98602</v>
+        <v>16759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>331</v>
+        <v>491</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>491</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,49 +6374,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7">
-        <v>7158</v>
+        <v>55160</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>492</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>59</v>
+      </c>
+      <c r="I20" s="7">
+        <v>43442</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="H20" s="7">
-        <v>12</v>
-      </c>
-      <c r="I20" s="7">
-        <v>9601</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="M20" s="7">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="N20" s="7">
-        <v>16759</v>
+        <v>98602</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,49 +6425,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>81</v>
+        <v>812</v>
       </c>
       <c r="D21" s="7">
-        <v>65219</v>
+        <v>594590</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>498</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>269</v>
+        <v>499</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>786</v>
       </c>
       <c r="I21" s="7">
-        <v>57200</v>
+        <v>539837</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M21" s="7">
-        <v>163</v>
+        <v>1598</v>
       </c>
       <c r="N21" s="7">
-        <v>122420</v>
+        <v>1134427</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>231</v>
+        <v>505</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,46 +6476,46 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>812</v>
+        <v>81</v>
       </c>
       <c r="D22" s="7">
-        <v>594590</v>
+        <v>65219</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>506</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H22" s="7">
-        <v>786</v>
+        <v>82</v>
       </c>
       <c r="I22" s="7">
-        <v>539837</v>
+        <v>57200</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M22" s="7">
-        <v>1598</v>
+        <v>163</v>
       </c>
       <c r="N22" s="7">
-        <v>1134427</v>
+        <v>122420</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>512</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>513</v>

--- a/data/trans_orig/IP28-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP28-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5433592-B19C-4EBE-A944-CE4CE6EC06AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DF6C688-508B-4BA1-A5A1-742FA5F217C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1A6D4A15-81CC-4D9B-BDF7-8E4797A6CF48}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EF1A05B-616A-4C04-B3D3-7F681F69DC12}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="514">
-  <si>
-    <t>Menores según la relación peso/altura en 2007 (Tasa respuesta: 98,72%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="617">
+  <si>
+    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2007 (Tasa respuesta: 98,72%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,1519 +68,1828 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Menor de lo normal</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>Algo mayor de lo normal</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>Bastante mayor de lo normal</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2012 (Tasa respuesta: 91,33%)</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2015 (Tasa respuesta: 89,7%)</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>0,0%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2023 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>Algo mayor de lo normal</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>Menor de lo normal</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>6,1%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>Menores según la relación peso/altura en 2012 (Tasa respuesta: 91,33%)</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>Menores según la relación peso/altura en 2015 (Tasa respuesta: 89,7%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>Menores según la relación peso/altura en 2023 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
+    <t>1,89%</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1900,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1687,39 +1996,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1771,7 +2080,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1882,13 +2191,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1897,6 +2199,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1961,19 +2270,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404FDBF7-A609-416F-B65F-A5F97147FE38}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3580328E-AEDA-4C48-B6E5-4A564666C359}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2090,10 +2419,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>1287</v>
+        <v>2023</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2105,10 +2434,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>2032</v>
+        <v>4207</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2120,10 +2449,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>3319</v>
+        <v>6230</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2141,10 +2470,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="D5" s="7">
-        <v>6013</v>
+        <v>113982</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2156,10 +2485,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="I5" s="7">
-        <v>6347</v>
+        <v>96327</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2171,10 +2500,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="N5" s="7">
-        <v>12359</v>
+        <v>210309</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2192,10 +2521,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>302</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>201999</v>
+        <v>3478</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2207,10 +2536,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>285</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>187653</v>
+        <v>2363</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2222,10 +2551,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>587</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>389653</v>
+        <v>5841</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2243,10 +2572,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>9276</v>
+        <v>639</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2258,34 +2587,34 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>8017</v>
+        <v>598</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1236</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="M7" s="7">
-        <v>27</v>
-      </c>
-      <c r="N7" s="7">
-        <v>17294</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,102 +2623,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>327</v>
+        <v>180</v>
       </c>
       <c r="D8" s="7">
-        <v>218575</v>
+        <v>120121</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
-        <v>311</v>
+        <v>158</v>
       </c>
       <c r="I8" s="7">
-        <v>204049</v>
+        <v>103495</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>638</v>
+        <v>338</v>
       </c>
       <c r="N8" s="7">
-        <v>422624</v>
+        <v>223616</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7">
-        <v>2120</v>
+        <v>15611</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
+        <v>14</v>
+      </c>
+      <c r="I9" s="7">
+        <v>9845</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1557</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>38</v>
+      </c>
+      <c r="N9" s="7">
+        <v>25456</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="7">
-        <v>5</v>
-      </c>
-      <c r="N9" s="7">
-        <v>3677</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,49 +2727,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>327</v>
       </c>
       <c r="D10" s="7">
-        <v>19641</v>
+        <v>217860</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>328</v>
+      </c>
+      <c r="I10" s="7">
+        <v>218471</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="7">
-        <v>30</v>
-      </c>
-      <c r="I10" s="7">
-        <v>19920</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>655</v>
+      </c>
+      <c r="N10" s="7">
+        <v>436331</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="7">
-        <v>60</v>
-      </c>
-      <c r="N10" s="7">
-        <v>39561</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,49 +2778,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>179888</v>
+        <v>15599</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>25</v>
+      </c>
+      <c r="I11" s="7">
+        <v>16619</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="7">
-        <v>250</v>
-      </c>
-      <c r="I11" s="7">
-        <v>168390</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>49</v>
+      </c>
+      <c r="N11" s="7">
+        <v>32218</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="7">
-        <v>522</v>
-      </c>
-      <c r="N11" s="7">
-        <v>348278</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,49 +2829,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>14379</v>
+        <v>1359</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2991</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>6</v>
+      </c>
+      <c r="N12" s="7">
+        <v>4350</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="7">
-        <v>19</v>
-      </c>
-      <c r="I12" s="7">
-        <v>13546</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="M12" s="7">
-        <v>41</v>
-      </c>
-      <c r="N12" s="7">
-        <v>27925</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,102 +2880,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="D13" s="7">
-        <v>216028</v>
+        <v>250429</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="I13" s="7">
-        <v>203413</v>
+        <v>247926</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
-        <v>628</v>
+        <v>748</v>
       </c>
       <c r="N13" s="7">
-        <v>419441</v>
+        <v>498355</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>5404</v>
+        <v>10172</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7">
+        <v>11796</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5243</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>33</v>
+      </c>
+      <c r="N14" s="7">
+        <v>21968</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="7">
-        <v>16</v>
-      </c>
-      <c r="N14" s="7">
-        <v>10647</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,49 +2984,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="D15" s="7">
-        <v>30991</v>
+        <v>110261</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>147</v>
+      </c>
+      <c r="I15" s="7">
+        <v>98218</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="7">
-        <v>40</v>
-      </c>
-      <c r="I15" s="7">
-        <v>27234</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>312</v>
+      </c>
+      <c r="N15" s="7">
+        <v>208479</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M15" s="7">
-        <v>87</v>
-      </c>
-      <c r="N15" s="7">
-        <v>58225</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,49 +3035,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>319</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>213161</v>
+        <v>16512</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>22</v>
+      </c>
+      <c r="I16" s="7">
+        <v>14971</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="7">
-        <v>310</v>
-      </c>
-      <c r="I16" s="7">
-        <v>209372</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>47</v>
+      </c>
+      <c r="N16" s="7">
+        <v>31483</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M16" s="7">
-        <v>629</v>
-      </c>
-      <c r="N16" s="7">
-        <v>422533</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,49 +3086,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>31460</v>
+        <v>2075</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2029</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="7">
-        <v>32</v>
-      </c>
-      <c r="I17" s="7">
-        <v>21201</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4104</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M17" s="7">
-        <v>79</v>
-      </c>
-      <c r="N17" s="7">
-        <v>52660</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,102 +3137,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>421</v>
+        <v>208</v>
       </c>
       <c r="D18" s="7">
-        <v>281015</v>
+        <v>139019</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="I18" s="7">
-        <v>263050</v>
+        <v>127014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
-        <v>811</v>
+        <v>398</v>
       </c>
       <c r="N18" s="7">
-        <v>544065</v>
+        <v>266033</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7">
-        <v>8810</v>
+        <v>27310</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="H19" s="7">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I19" s="7">
-        <v>8832</v>
+        <v>16915</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="N19" s="7">
-        <v>17642</v>
+        <v>44225</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,49 +3241,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="D20" s="7">
-        <v>56644</v>
+        <v>152945</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="I20" s="7">
-        <v>53501</v>
+        <v>152400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
-        <v>166</v>
+        <v>454</v>
       </c>
       <c r="N20" s="7">
-        <v>110146</v>
+        <v>305345</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,49 +3292,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>893</v>
+        <v>32</v>
       </c>
       <c r="D21" s="7">
-        <v>595048</v>
+        <v>21056</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
-        <v>845</v>
+        <v>29</v>
       </c>
       <c r="I21" s="7">
-        <v>565416</v>
+        <v>19548</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
-        <v>1738</v>
+        <v>61</v>
       </c>
       <c r="N21" s="7">
-        <v>1160463</v>
+        <v>40604</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,49 +3343,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>55115</v>
+        <v>4738</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>42764</v>
+        <v>3214</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="N22" s="7">
-        <v>97879</v>
+        <v>7952</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,55 +3394,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>310</v>
+      </c>
+      <c r="D23" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="7">
+        <v>283</v>
+      </c>
+      <c r="I23" s="7">
+        <v>192078</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="7">
+        <v>593</v>
+      </c>
+      <c r="N23" s="7">
+        <v>398126</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>83</v>
+      </c>
+      <c r="D24" s="7">
+        <v>55115</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="7">
+        <v>64</v>
+      </c>
+      <c r="I24" s="7">
+        <v>42764</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M24" s="7">
+        <v>147</v>
+      </c>
+      <c r="N24" s="7">
+        <v>97879</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>893</v>
+      </c>
+      <c r="D25" s="7">
+        <v>595048</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="7">
+        <v>845</v>
+      </c>
+      <c r="I25" s="7">
+        <v>565416</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1738</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1160463</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>86</v>
+      </c>
+      <c r="D26" s="7">
+        <v>56644</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="7">
+        <v>80</v>
+      </c>
+      <c r="I26" s="7">
+        <v>53501</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M26" s="7">
+        <v>166</v>
+      </c>
+      <c r="N26" s="7">
+        <v>110146</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7">
+        <v>13</v>
+      </c>
+      <c r="D27" s="7">
+        <v>8810</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="7">
+        <v>13</v>
+      </c>
+      <c r="I27" s="7">
+        <v>8832</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="7">
+        <v>26</v>
+      </c>
+      <c r="N27" s="7">
+        <v>17642</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>1075</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>715618</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="7">
         <v>1002</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>670513</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="7">
         <v>2077</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>1386130</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>50</v>
+      <c r="O28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3126,8 +3718,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5008D1-BBA0-4C48-ABDA-C4D0F2BFE51C}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659FE899-AF17-4374-B00E-E7BC6C33D006}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3143,7 +3735,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3244,49 +3836,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>2746</v>
+        <v>3208</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>1444</v>
+        <v>6539</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>4191</v>
+        <v>9747</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,49 +3887,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="D5" s="7">
-        <v>6798</v>
+        <v>122078</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="I5" s="7">
-        <v>6163</v>
+        <v>120413</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>352</v>
       </c>
       <c r="N5" s="7">
-        <v>12961</v>
+        <v>242491</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,49 +3938,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>281</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>199602</v>
+        <v>4482</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>186913</v>
+        <v>3251</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
-        <v>561</v>
+        <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>386516</v>
+        <v>7733</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,49 +3989,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>5735</v>
+        <v>1999</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>10317</v>
+        <v>1445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>16052</v>
+        <v>3444</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,102 +4040,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>304</v>
+        <v>188</v>
       </c>
       <c r="D8" s="7">
-        <v>214882</v>
+        <v>131768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
-        <v>307</v>
+        <v>196</v>
       </c>
       <c r="I8" s="7">
-        <v>204837</v>
+        <v>131647</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>611</v>
+        <v>384</v>
       </c>
       <c r="N8" s="7">
-        <v>419720</v>
+        <v>263415</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>1448</v>
+        <v>15297</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7">
-        <v>2226</v>
+        <v>12279</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="M9" s="7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>3675</v>
+        <v>27576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,49 +4144,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>294</v>
       </c>
       <c r="D10" s="7">
-        <v>17969</v>
+        <v>211839</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="I10" s="7">
-        <v>26522</v>
+        <v>181086</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
-        <v>61</v>
+        <v>556</v>
       </c>
       <c r="N10" s="7">
-        <v>44491</v>
+        <v>392925</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,49 +4195,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>185269</v>
+        <v>14270</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7">
-        <v>162846</v>
+        <v>16948</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>486</v>
+        <v>43</v>
       </c>
       <c r="N11" s="7">
-        <v>348115</v>
+        <v>31217</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,49 +4246,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>16900</v>
+        <v>1455</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>11303</v>
+        <v>756</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="M12" s="7">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>28203</v>
+        <v>2211</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,102 +4297,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="D13" s="7">
-        <v>221587</v>
+        <v>242861</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="I13" s="7">
-        <v>202897</v>
+        <v>211069</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
-        <v>591</v>
+        <v>641</v>
       </c>
       <c r="N13" s="7">
-        <v>424484</v>
+        <v>453930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>7224</v>
+        <v>9610</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>9381</v>
+        <v>8184</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N14" s="7">
-        <v>16605</v>
+        <v>17794</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,49 +4401,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="D15" s="7">
-        <v>37098</v>
+        <v>112403</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="H15" s="7">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="I15" s="7">
-        <v>39192</v>
+        <v>109434</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="M15" s="7">
-        <v>109</v>
+        <v>319</v>
       </c>
       <c r="N15" s="7">
-        <v>76290</v>
+        <v>221837</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,49 +4452,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>179136</v>
+        <v>23021</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="I16" s="7">
-        <v>167591</v>
+        <v>25423</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
-        <v>505</v>
+        <v>67</v>
       </c>
       <c r="N16" s="7">
-        <v>346727</v>
+        <v>48444</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,49 +4503,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>29401</v>
+        <v>2665</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>22459</v>
+        <v>4805</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>51860</v>
+        <v>7470</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,102 +4554,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>374</v>
+        <v>213</v>
       </c>
       <c r="D18" s="7">
-        <v>252860</v>
+        <v>147699</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
-        <v>341</v>
+        <v>210</v>
       </c>
       <c r="I18" s="7">
-        <v>238623</v>
+        <v>147846</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
-        <v>715</v>
+        <v>423</v>
       </c>
       <c r="N18" s="7">
-        <v>491483</v>
+        <v>295545</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>11419</v>
+        <v>23921</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>287</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I19" s="7">
-        <v>13052</v>
+        <v>17077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>58</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="N19" s="7">
-        <v>24471</v>
+        <v>40998</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>125</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,49 +4658,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D20" s="7">
-        <v>61866</v>
+        <v>117687</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="H20" s="7">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="I20" s="7">
-        <v>71876</v>
+        <v>106417</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
-        <v>189</v>
+        <v>325</v>
       </c>
       <c r="N20" s="7">
-        <v>133742</v>
+        <v>224104</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,49 +4709,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>804</v>
+        <v>30</v>
       </c>
       <c r="D21" s="7">
-        <v>564009</v>
+        <v>20093</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="H21" s="7">
-        <v>748</v>
+        <v>37</v>
       </c>
       <c r="I21" s="7">
-        <v>517350</v>
+        <v>26254</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="M21" s="7">
-        <v>1552</v>
+        <v>67</v>
       </c>
       <c r="N21" s="7">
-        <v>1081358</v>
+        <v>46347</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>69</v>
+        <v>309</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,49 +4760,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>52037</v>
+        <v>5300</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>44079</v>
+        <v>6047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="N22" s="7">
-        <v>96115</v>
+        <v>11346</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,55 +4811,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>247</v>
+      </c>
+      <c r="D23" s="7">
+        <v>167001</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="7">
+        <v>222</v>
+      </c>
+      <c r="I23" s="7">
+        <v>155795</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="7">
+        <v>469</v>
+      </c>
+      <c r="N23" s="7">
+        <v>322796</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>76</v>
+      </c>
+      <c r="D24" s="7">
+        <v>52037</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H24" s="7">
+        <v>65</v>
+      </c>
+      <c r="I24" s="7">
+        <v>44079</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M24" s="7">
+        <v>141</v>
+      </c>
+      <c r="N24" s="7">
+        <v>96115</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>804</v>
+      </c>
+      <c r="D25" s="7">
+        <v>564009</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H25" s="7">
+        <v>748</v>
+      </c>
+      <c r="I25" s="7">
+        <v>517350</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1552</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1081358</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>88</v>
+      </c>
+      <c r="D26" s="7">
+        <v>61866</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H26" s="7">
+        <v>101</v>
+      </c>
+      <c r="I26" s="7">
+        <v>71876</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M26" s="7">
+        <v>189</v>
+      </c>
+      <c r="N26" s="7">
+        <v>133742</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7">
+        <v>17</v>
+      </c>
+      <c r="D27" s="7">
+        <v>11419</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H27" s="7">
+        <v>18</v>
+      </c>
+      <c r="I27" s="7">
+        <v>13052</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M27" s="7">
+        <v>35</v>
+      </c>
+      <c r="N27" s="7">
+        <v>24471</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>985</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>689330</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="7">
         <v>932</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>646357</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="7">
         <v>1917</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>1335686</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>50</v>
+      <c r="O28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4280,8 +5135,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE068C2D-F477-4D04-9492-54A94E19F363}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFBE2F1-5BB1-4094-A11D-4F31BD5DE16F}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4297,7 +5152,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>350</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4398,49 +5253,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1267</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>281</v>
+        <v>351</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>1179</v>
+        <v>3951</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>283</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>1179</v>
+        <v>5218</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>352</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,49 +5304,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="D5" s="7">
-        <v>6653</v>
+        <v>110097</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>286</v>
+        <v>354</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>287</v>
+        <v>355</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>288</v>
+        <v>356</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>7058</v>
+        <v>113899</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="M5" s="7">
-        <v>22</v>
+        <v>348</v>
       </c>
       <c r="N5" s="7">
-        <v>13710</v>
+        <v>223997</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>291</v>
+        <v>360</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>293</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,49 +5355,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>271</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>180408</v>
+        <v>3321</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>294</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>37</v>
+        <v>363</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="H6" s="7">
-        <v>268</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>165781</v>
+        <v>3479</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>297</v>
+        <v>366</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="M6" s="7">
-        <v>539</v>
+        <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>346188</v>
+        <v>6800</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>300</v>
+        <v>369</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>301</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,49 +5406,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2982</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>303</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>5703</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>8685</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,102 +5457,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="D8" s="7">
-        <v>190043</v>
+        <v>114685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
-        <v>292</v>
+        <v>195</v>
       </c>
       <c r="I8" s="7">
-        <v>179720</v>
+        <v>121329</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>578</v>
+        <v>368</v>
       </c>
       <c r="N8" s="7">
-        <v>369762</v>
+        <v>236015</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7">
-        <v>2588</v>
+        <v>8438</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>310</v>
+        <v>373</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7">
-        <v>2031</v>
+        <v>5311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>377</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>314</v>
+        <v>378</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N9" s="7">
-        <v>4619</v>
+        <v>13749</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>316</v>
+        <v>380</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>317</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,49 +5561,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c r="D10" s="7">
-        <v>9741</v>
+        <v>206393</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>318</v>
+        <v>381</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>319</v>
+        <v>382</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>320</v>
+        <v>383</v>
       </c>
       <c r="H10" s="7">
-        <v>23</v>
+        <v>268</v>
       </c>
       <c r="I10" s="7">
-        <v>14069</v>
+        <v>171081</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>321</v>
+        <v>385</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="M10" s="7">
-        <v>38</v>
+        <v>571</v>
       </c>
       <c r="N10" s="7">
-        <v>23810</v>
+        <v>377474</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>387</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>324</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,49 +5612,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>195646</v>
+        <v>8369</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>326</v>
+        <v>391</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>327</v>
+        <v>392</v>
       </c>
       <c r="H11" s="7">
-        <v>287</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>188391</v>
+        <v>10230</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>328</v>
+        <v>393</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="M11" s="7">
-        <v>570</v>
+        <v>30</v>
       </c>
       <c r="N11" s="7">
-        <v>384037</v>
+        <v>18599</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>331</v>
+        <v>395</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>332</v>
+        <v>396</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>333</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,49 +5663,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>12825</v>
+        <v>666</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>334</v>
+        <v>398</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>335</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>6760</v>
+        <v>1751</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>338</v>
+        <v>398</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>339</v>
+        <v>401</v>
       </c>
       <c r="M12" s="7">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>19586</v>
+        <v>2417</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>341</v>
+        <v>403</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,102 +5714,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D13" s="7">
-        <v>220801</v>
+        <v>223866</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="I13" s="7">
-        <v>211251</v>
+        <v>188373</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="N13" s="7">
-        <v>432052</v>
+        <v>412239</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7">
-        <v>4073</v>
+        <v>11917</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>343</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>337</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>3162</v>
+        <v>6015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>347</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N14" s="7">
-        <v>7235</v>
+        <v>17932</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>350</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,49 +5818,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="D15" s="7">
-        <v>30071</v>
+        <v>138872</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>352</v>
+        <v>412</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>353</v>
+        <v>413</v>
       </c>
       <c r="H15" s="7">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="I15" s="7">
-        <v>25285</v>
+        <v>142650</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>355</v>
+        <v>415</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>356</v>
+        <v>416</v>
       </c>
       <c r="M15" s="7">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="N15" s="7">
-        <v>55356</v>
+        <v>281522</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>358</v>
+        <v>418</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,49 +5869,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>198803</v>
+        <v>15072</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>361</v>
+        <v>421</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>422</v>
       </c>
       <c r="H16" s="7">
-        <v>280</v>
+        <v>23</v>
       </c>
       <c r="I16" s="7">
-        <v>201985</v>
+        <v>14946</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>423</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>424</v>
       </c>
       <c r="M16" s="7">
-        <v>548</v>
+        <v>45</v>
       </c>
       <c r="N16" s="7">
-        <v>400788</v>
+        <v>30017</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,49 +5920,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>23608</v>
+        <v>2594</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>11819</v>
+        <v>3409</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>429</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>27</v>
+        <v>430</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="M17" s="7">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>35427</v>
+        <v>6003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>372</v>
+        <v>432</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>59</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,102 +5971,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>347</v>
+        <v>235</v>
       </c>
       <c r="D18" s="7">
-        <v>256555</v>
+        <v>168454</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
-        <v>339</v>
+        <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>242251</v>
+        <v>167020</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
-        <v>686</v>
+        <v>475</v>
       </c>
       <c r="N18" s="7">
-        <v>498806</v>
+        <v>335474</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D19" s="7">
-        <v>6661</v>
+        <v>17794</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>435</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="H19" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>6372</v>
+        <v>9005</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>440</v>
       </c>
       <c r="M19" s="7">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N19" s="7">
-        <v>13033</v>
+        <v>26799</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,49 +6075,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="D20" s="7">
-        <v>46465</v>
+        <v>119494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>444</v>
       </c>
       <c r="H20" s="7">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="I20" s="7">
-        <v>46411</v>
+        <v>128526</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>445</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>384</v>
+        <v>446</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
-        <v>137</v>
+        <v>342</v>
       </c>
       <c r="N20" s="7">
-        <v>92876</v>
+        <v>248020</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>387</v>
+        <v>448</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>388</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,49 +6126,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>822</v>
+        <v>25</v>
       </c>
       <c r="D21" s="7">
-        <v>574856</v>
+        <v>19703</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>389</v>
+        <v>451</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="H21" s="7">
-        <v>835</v>
+        <v>26</v>
       </c>
       <c r="I21" s="7">
-        <v>556157</v>
+        <v>17757</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>392</v>
+        <v>454</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>393</v>
+        <v>455</v>
       </c>
       <c r="M21" s="7">
-        <v>1657</v>
+        <v>51</v>
       </c>
       <c r="N21" s="7">
-        <v>1131013</v>
+        <v>37459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>394</v>
+        <v>456</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>395</v>
+        <v>457</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>396</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,49 +6177,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>39415</v>
+        <v>3402</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>288</v>
+        <v>459</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
       <c r="H22" s="7">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>24282</v>
+        <v>1211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>401</v>
       </c>
       <c r="M22" s="7">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>63697</v>
+        <v>4614</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>404</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,55 +6228,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>216</v>
+      </c>
+      <c r="D23" s="7">
+        <v>160392</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="7">
+        <v>222</v>
+      </c>
+      <c r="I23" s="7">
+        <v>156500</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="7">
+        <v>438</v>
+      </c>
+      <c r="N23" s="7">
+        <v>316892</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>56</v>
+      </c>
+      <c r="D24" s="7">
+        <v>39415</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H24" s="7">
+        <v>37</v>
+      </c>
+      <c r="I24" s="7">
+        <v>24282</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="M24" s="7">
+        <v>93</v>
+      </c>
+      <c r="N24" s="7">
+        <v>63697</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>822</v>
+      </c>
+      <c r="D25" s="7">
+        <v>574856</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H25" s="7">
+        <v>835</v>
+      </c>
+      <c r="I25" s="7">
+        <v>556157</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1657</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1131013</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>65</v>
+      </c>
+      <c r="D26" s="7">
+        <v>46465</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H26" s="7">
+        <v>72</v>
+      </c>
+      <c r="I26" s="7">
+        <v>46411</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" s="7">
+        <v>137</v>
+      </c>
+      <c r="N26" s="7">
+        <v>92876</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7">
+        <v>6661</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H27" s="7">
+        <v>10</v>
+      </c>
+      <c r="I27" s="7">
+        <v>6372</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="M27" s="7">
+        <v>20</v>
+      </c>
+      <c r="N27" s="7">
+        <v>13033</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>953</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>667398</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="7">
         <v>954</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>633222</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="7">
         <v>1907</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>1300620</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>50</v>
+      <c r="O28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5434,8 +6552,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB176F1-4238-4BB1-86EB-ECBE8F530D64}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF4D4B1-23A4-4F02-923F-B07CD3843F92}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5451,7 +6569,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5558,43 +6676,43 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>404</v>
+        <v>493</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>159</v>
+        <v>1967</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>495</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>17</v>
+        <v>496</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>159</v>
+        <v>1967</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>406</v>
+        <v>497</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>498</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>407</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,49 +6721,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="D5" s="7">
-        <v>7098</v>
+        <v>54512</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>271</v>
+        <v>500</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>408</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>409</v>
+        <v>501</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="I5" s="7">
-        <v>1919</v>
+        <v>53886</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>411</v>
+        <v>503</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>412</v>
+        <v>504</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="N5" s="7">
-        <v>9016</v>
+        <v>108397</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>47</v>
+        <v>505</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>413</v>
+        <v>506</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>414</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,49 +6772,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>107133</v>
+        <v>3426</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>416</v>
+        <v>508</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>417</v>
+        <v>101</v>
       </c>
       <c r="H6" s="7">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>96925</v>
+        <v>1516</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>418</v>
+        <v>509</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>419</v>
+        <v>510</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>420</v>
+        <v>511</v>
       </c>
       <c r="M6" s="7">
-        <v>391</v>
+        <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>204059</v>
+        <v>4942</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>421</v>
+        <v>512</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>422</v>
+        <v>513</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>423</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,49 +6823,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2414</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>424</v>
+        <v>493</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>425</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>427</v>
+        <v>515</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>7214</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>428</v>
+        <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>429</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,102 +6874,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>115</v>
+      </c>
+      <c r="D8" s="7">
+        <v>57938</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="7">
+        <v>109</v>
+      </c>
+      <c r="I8" s="7">
+        <v>57369</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="7">
         <v>224</v>
       </c>
-      <c r="D8" s="7">
-        <v>116645</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="7">
-        <v>199</v>
-      </c>
-      <c r="I8" s="7">
-        <v>103803</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="7">
-        <v>423</v>
-      </c>
       <c r="N8" s="7">
-        <v>220448</v>
+        <v>115306</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>1348</v>
+        <v>11266</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>282</v>
+        <v>517</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>283</v>
+        <v>518</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7">
-        <v>703</v>
+        <v>10662</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>153</v>
+        <v>519</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>520</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>430</v>
+        <v>521</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="N9" s="7">
-        <v>2051</v>
+        <v>21928</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>431</v>
+        <v>522</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>405</v>
+        <v>523</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>432</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,49 +6978,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="D10" s="7">
-        <v>15951</v>
+        <v>151318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>433</v>
+        <v>525</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>434</v>
+        <v>526</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="I10" s="7">
-        <v>11566</v>
+        <v>142044</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>145</v>
+        <v>530</v>
       </c>
       <c r="M10" s="7">
-        <v>37</v>
+        <v>469</v>
       </c>
       <c r="N10" s="7">
-        <v>27517</v>
+        <v>293361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>531</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>438</v>
+        <v>532</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>439</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,49 +7029,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7">
-        <v>172515</v>
+        <v>10639</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>441</v>
+        <v>534</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>442</v>
+        <v>535</v>
       </c>
       <c r="H11" s="7">
-        <v>241</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>168167</v>
+        <v>5900</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>443</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>444</v>
+        <v>536</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>445</v>
+        <v>537</v>
       </c>
       <c r="M11" s="7">
-        <v>470</v>
+        <v>26</v>
       </c>
       <c r="N11" s="7">
-        <v>340683</v>
+        <v>16539</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>446</v>
+        <v>538</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>447</v>
+        <v>539</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>448</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,49 +7080,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>15242</v>
+        <v>1348</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>450</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>451</v>
+        <v>540</v>
       </c>
       <c r="H12" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>17830</v>
+        <v>159</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>213</v>
+        <v>541</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>452</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="M12" s="7">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>33072</v>
+        <v>1507</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>454</v>
+        <v>542</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>455</v>
+        <v>543</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>456</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,102 +7131,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D13" s="7">
-        <v>205055</v>
+        <v>174571</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I13" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="N13" s="7">
-        <v>403323</v>
+        <v>333335</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7">
-        <v>5811</v>
+        <v>14662</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>545</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>457</v>
+        <v>546</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>458</v>
+        <v>126</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I14" s="7">
-        <v>8738</v>
+        <v>19155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>459</v>
+        <v>547</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>460</v>
+        <v>548</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>461</v>
+        <v>549</v>
       </c>
       <c r="M14" s="7">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N14" s="7">
-        <v>14549</v>
+        <v>33817</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>462</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>463</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,49 +7235,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="D15" s="7">
-        <v>32112</v>
+        <v>164741</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>464</v>
+        <v>233</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>116</v>
+        <v>551</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>465</v>
+        <v>552</v>
       </c>
       <c r="H15" s="7">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="I15" s="7">
-        <v>29958</v>
+        <v>136018</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>553</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>466</v>
+        <v>554</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>191</v>
+        <v>555</v>
       </c>
       <c r="M15" s="7">
-        <v>73</v>
+        <v>381</v>
       </c>
       <c r="N15" s="7">
-        <v>62069</v>
+        <v>300760</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>468</v>
+        <v>557</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>469</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,49 +7286,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>314940</v>
+        <v>21619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>470</v>
+        <v>559</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>471</v>
+        <v>560</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>472</v>
+        <v>561</v>
       </c>
       <c r="H16" s="7">
-        <v>359</v>
+        <v>25</v>
       </c>
       <c r="I16" s="7">
-        <v>274744</v>
+        <v>18633</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>473</v>
+        <v>559</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>474</v>
+        <v>562</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>475</v>
+        <v>563</v>
       </c>
       <c r="M16" s="7">
-        <v>737</v>
+        <v>50</v>
       </c>
       <c r="N16" s="7">
-        <v>589685</v>
+        <v>40252</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>476</v>
+        <v>559</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>477</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>478</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,49 +7337,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>47563</v>
+        <v>1455</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>479</v>
+        <v>565</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>480</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>481</v>
+        <v>566</v>
       </c>
       <c r="H17" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>34571</v>
+        <v>703</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>482</v>
+        <v>567</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>568</v>
       </c>
       <c r="M17" s="7">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>82134</v>
+        <v>2158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>484</v>
+        <v>569</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>485</v>
+        <v>570</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,102 +7388,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>477</v>
+        <v>243</v>
       </c>
       <c r="D18" s="7">
-        <v>400426</v>
+        <v>202478</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
-        <v>459</v>
+        <v>231</v>
       </c>
       <c r="I18" s="7">
-        <v>348011</v>
+        <v>174510</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
-        <v>936</v>
+        <v>474</v>
       </c>
       <c r="N18" s="7">
-        <v>748437</v>
+        <v>376988</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>7158</v>
+        <v>39291</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>486</v>
+        <v>571</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>487</v>
+        <v>144</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>488</v>
+        <v>572</v>
       </c>
       <c r="H19" s="7">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I19" s="7">
-        <v>9601</v>
+        <v>25417</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>489</v>
+        <v>573</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>490</v>
+        <v>562</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>574</v>
       </c>
       <c r="M19" s="7">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="N19" s="7">
-        <v>16759</v>
+        <v>64708</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>576</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,49 +7492,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>69</v>
+        <v>267</v>
       </c>
       <c r="D20" s="7">
-        <v>55160</v>
+        <v>224018</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>492</v>
+        <v>578</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>579</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>493</v>
+        <v>580</v>
       </c>
       <c r="H20" s="7">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="I20" s="7">
-        <v>43442</v>
+        <v>207890</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>494</v>
+        <v>581</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
-        <v>128</v>
+        <v>537</v>
       </c>
       <c r="N20" s="7">
-        <v>98602</v>
+        <v>431908</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>371</v>
+        <v>583</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>277</v>
+        <v>584</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,49 +7543,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>812</v>
+        <v>19</v>
       </c>
       <c r="D21" s="7">
-        <v>594590</v>
+        <v>19475</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>498</v>
+        <v>586</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>499</v>
+        <v>224</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>500</v>
+        <v>587</v>
       </c>
       <c r="H21" s="7">
-        <v>786</v>
+        <v>23</v>
       </c>
       <c r="I21" s="7">
-        <v>539837</v>
+        <v>17393</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>501</v>
+        <v>69</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>502</v>
+        <v>588</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>503</v>
+        <v>141</v>
       </c>
       <c r="M21" s="7">
-        <v>1598</v>
+        <v>42</v>
       </c>
       <c r="N21" s="7">
-        <v>1134427</v>
+        <v>36868</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>504</v>
+        <v>589</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>505</v>
+        <v>590</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>506</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,49 +7594,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>65219</v>
+        <v>4356</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>507</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>508</v>
+        <v>592</v>
       </c>
       <c r="H22" s="7">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>57200</v>
+        <v>8738</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>509</v>
+        <v>593</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>510</v>
+        <v>594</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>511</v>
+        <v>595</v>
       </c>
       <c r="M22" s="7">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="N22" s="7">
-        <v>122420</v>
+        <v>13094</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>512</v>
+        <v>43</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>513</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,55 +7645,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>340</v>
+      </c>
+      <c r="D23" s="7">
+        <v>287140</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="7">
+        <v>341</v>
+      </c>
+      <c r="I23" s="7">
+        <v>259438</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="7">
+        <v>681</v>
+      </c>
+      <c r="N23" s="7">
+        <v>546578</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>81</v>
+      </c>
+      <c r="D24" s="7">
+        <v>65219</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="7">
+        <v>82</v>
+      </c>
+      <c r="I24" s="7">
+        <v>57200</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="M24" s="7">
+        <v>163</v>
+      </c>
+      <c r="N24" s="7">
+        <v>122420</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>812</v>
+      </c>
+      <c r="D25" s="7">
+        <v>594590</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H25" s="7">
+        <v>786</v>
+      </c>
+      <c r="I25" s="7">
+        <v>539837</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1598</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1134427</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>69</v>
+      </c>
+      <c r="D26" s="7">
+        <v>55160</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H26" s="7">
+        <v>59</v>
+      </c>
+      <c r="I26" s="7">
+        <v>43442</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M26" s="7">
+        <v>128</v>
+      </c>
+      <c r="N26" s="7">
+        <v>98602</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7">
+        <v>7158</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="H27" s="7">
+        <v>12</v>
+      </c>
+      <c r="I27" s="7">
+        <v>9601</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M27" s="7">
+        <v>22</v>
+      </c>
+      <c r="N27" s="7">
+        <v>16759</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>972</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>722127</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="7">
         <v>939</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>650081</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="7">
         <v>1911</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>1372208</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>50</v>
+      <c r="O28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP28-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP28-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DF6C688-508B-4BA1-A5A1-742FA5F217C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D463E43F-F915-4253-8EA5-FD5B2F1CD6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EF1A05B-616A-4C04-B3D3-7F681F69DC12}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A41758E-AA2E-4008-90DA-B6E83CAB37C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="627">
   <si>
     <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2007 (Tasa respuesta: 98,72%)</t>
   </si>
@@ -80,1816 +80,1846 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>4,55%</t>
+    <t>4,46%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,42%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>Algo mayor de lo normal</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>Bastante mayor de lo normal</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2012 (Tasa respuesta: 91,33%)</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2016 (Tasa respuesta: 89,7%)</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2023 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>Algo mayor de lo normal</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>Bastante mayor de lo normal</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2012 (Tasa respuesta: 91,33%)</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
+    <t>7,19%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2015 (Tasa respuesta: 89,7%)</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>Menores según la percepción de sus progenitores sobre su relación peso/altura en 2023 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3580328E-AEDA-4C48-B6E5-4A564666C359}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE89C007-2E5B-4707-894A-9C0CC35CDD9E}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2599,7 +2629,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2608,13 +2638,13 @@
         <v>1236</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,13 +2659,13 @@
         <v>120121</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>158</v>
@@ -2644,13 +2674,13 @@
         <v>103495</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>338</v>
@@ -2659,18 +2689,18 @@
         <v>223616</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2682,13 +2712,13 @@
         <v>15611</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -2697,13 +2727,13 @@
         <v>9845</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>38</v>
@@ -2712,13 +2742,13 @@
         <v>25456</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2763,13 @@
         <v>217860</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>328</v>
@@ -2748,13 +2778,13 @@
         <v>218471</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>655</v>
@@ -2763,13 +2793,13 @@
         <v>436331</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2814,13 @@
         <v>15599</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -2799,13 +2829,13 @@
         <v>16619</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -2814,13 +2844,13 @@
         <v>32218</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,7 +2871,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -2850,13 +2880,13 @@
         <v>2991</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -2865,13 +2895,13 @@
         <v>4350</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,13 +2916,13 @@
         <v>250429</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>371</v>
@@ -2901,13 +2931,13 @@
         <v>247926</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>748</v>
@@ -2916,18 +2946,18 @@
         <v>498355</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2939,13 +2969,13 @@
         <v>10172</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -2954,13 +2984,13 @@
         <v>11796</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -2969,13 +2999,13 @@
         <v>21968</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +3020,13 @@
         <v>110261</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H15" s="7">
         <v>147</v>
@@ -3005,13 +3035,13 @@
         <v>98218</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M15" s="7">
         <v>312</v>
@@ -3020,13 +3050,13 @@
         <v>208479</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,13 +3071,13 @@
         <v>16512</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -3056,13 +3086,13 @@
         <v>14971</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -3071,13 +3101,13 @@
         <v>31483</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3122,13 @@
         <v>2075</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3107,13 +3137,13 @@
         <v>2029</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -3122,13 +3152,13 @@
         <v>4104</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3173,13 @@
         <v>139019</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
         <v>190</v>
@@ -3158,13 +3188,13 @@
         <v>127014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
         <v>398</v>
@@ -3173,18 +3203,18 @@
         <v>266033</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3196,13 +3226,13 @@
         <v>27310</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -3211,13 +3241,13 @@
         <v>16915</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -3226,13 +3256,13 @@
         <v>44225</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3277,13 @@
         <v>152945</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>224</v>
@@ -3262,13 +3292,13 @@
         <v>152400</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>454</v>
@@ -3277,13 +3307,13 @@
         <v>305345</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3328,13 @@
         <v>21056</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -3313,13 +3343,13 @@
         <v>19548</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>61</v>
@@ -3328,13 +3358,13 @@
         <v>40604</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,13 +3379,13 @@
         <v>4738</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3364,13 +3394,13 @@
         <v>3214</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3379,13 +3409,13 @@
         <v>7952</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3430,13 @@
         <v>206049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>283</v>
@@ -3415,13 +3445,13 @@
         <v>192078</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>593</v>
@@ -3430,13 +3460,13 @@
         <v>398126</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3483,13 @@
         <v>55115</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>64</v>
@@ -3468,13 +3498,13 @@
         <v>42764</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>147</v>
@@ -3483,13 +3513,13 @@
         <v>97879</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3534,13 @@
         <v>595048</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>845</v>
@@ -3519,13 +3549,13 @@
         <v>565416</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>1738</v>
@@ -3534,13 +3564,13 @@
         <v>1160463</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3585,13 @@
         <v>56644</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>80</v>
@@ -3570,13 +3600,13 @@
         <v>53501</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
@@ -3585,13 +3615,13 @@
         <v>110146</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3636,13 @@
         <v>8810</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -3621,13 +3651,13 @@
         <v>8832</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>26</v>
@@ -3636,13 +3666,13 @@
         <v>17642</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3687,13 @@
         <v>715618</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="7">
         <v>1002</v>
@@ -3672,13 +3702,13 @@
         <v>670513</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M28" s="7">
         <v>2077</v>
@@ -3687,18 +3717,18 @@
         <v>1386130</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3718,7 +3748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659FE899-AF17-4374-B00E-E7BC6C33D006}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEDC070-39AE-4E35-B981-0D80A3D78098}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3735,7 +3765,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3842,13 +3872,13 @@
         <v>3208</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -3857,13 +3887,13 @@
         <v>6539</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3872,13 +3902,13 @@
         <v>9747</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3923,13 @@
         <v>122078</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
         <v>179</v>
@@ -3908,13 +3938,13 @@
         <v>120413</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
         <v>352</v>
@@ -3923,13 +3953,13 @@
         <v>242491</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3974,13 @@
         <v>4482</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3959,13 +3989,13 @@
         <v>3251</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -3974,13 +4004,13 @@
         <v>7733</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +4025,13 @@
         <v>1999</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4010,13 +4040,13 @@
         <v>1445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4025,13 +4055,13 @@
         <v>3444</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4076,13 @@
         <v>131768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>196</v>
@@ -4061,13 +4091,13 @@
         <v>131647</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>384</v>
@@ -4076,18 +4106,18 @@
         <v>263415</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4099,13 +4129,13 @@
         <v>15297</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -4114,13 +4144,13 @@
         <v>12279</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
@@ -4129,13 +4159,13 @@
         <v>27576</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4180,13 @@
         <v>211839</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>262</v>
@@ -4165,13 +4195,13 @@
         <v>181086</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>556</v>
@@ -4180,13 +4210,13 @@
         <v>392925</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4231,13 @@
         <v>14270</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -4216,13 +4246,13 @@
         <v>16948</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
@@ -4231,13 +4261,13 @@
         <v>31217</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4282,13 @@
         <v>1455</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4267,13 +4297,13 @@
         <v>756</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -4282,13 +4312,13 @@
         <v>2211</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4333,13 @@
         <v>242861</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>304</v>
@@ -4318,13 +4348,13 @@
         <v>211069</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>641</v>
@@ -4333,18 +4363,18 @@
         <v>453930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4356,13 +4386,13 @@
         <v>9610</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -4371,13 +4401,13 @@
         <v>8184</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -4386,13 +4416,13 @@
         <v>17794</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4437,13 @@
         <v>112403</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H15" s="7">
         <v>155</v>
@@ -4422,13 +4452,13 @@
         <v>109434</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M15" s="7">
         <v>319</v>
@@ -4437,13 +4467,13 @@
         <v>221837</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4488,13 @@
         <v>23021</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4473,13 +4503,13 @@
         <v>25423</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -4488,13 +4518,13 @@
         <v>48444</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4539,13 @@
         <v>2665</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4524,13 +4554,13 @@
         <v>4805</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -4539,13 +4569,13 @@
         <v>7470</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4590,13 @@
         <v>147699</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
         <v>210</v>
@@ -4575,13 +4605,13 @@
         <v>147846</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
         <v>423</v>
@@ -4590,18 +4620,18 @@
         <v>295545</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4613,13 +4643,13 @@
         <v>23921</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -4628,13 +4658,13 @@
         <v>17077</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -4643,13 +4673,13 @@
         <v>40998</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4796,13 @@
         <v>5300</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -4781,13 +4811,13 @@
         <v>6047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -4796,13 +4826,13 @@
         <v>11346</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4847,13 @@
         <v>167001</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>222</v>
@@ -4832,13 +4862,13 @@
         <v>155795</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>469</v>
@@ -4847,13 +4877,13 @@
         <v>322796</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4900,13 @@
         <v>52037</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H24" s="7">
         <v>65</v>
@@ -4885,13 +4915,13 @@
         <v>44079</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M24" s="7">
         <v>141</v>
@@ -4900,13 +4930,13 @@
         <v>96115</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>260</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4951,13 @@
         <v>564009</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H25" s="7">
         <v>748</v>
@@ -4936,13 +4966,13 @@
         <v>517350</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>330</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M25" s="7">
         <v>1552</v>
@@ -4951,13 +4981,13 @@
         <v>1081358</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +5002,13 @@
         <v>61866</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -4987,13 +5017,13 @@
         <v>71876</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M26" s="7">
         <v>189</v>
@@ -5002,13 +5032,13 @@
         <v>133742</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,10 +5053,10 @@
         <v>11419</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>342</v>
+        <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>343</v>
+        <v>146</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>344</v>
@@ -5038,10 +5068,10 @@
         <v>13052</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>346</v>
@@ -5074,13 +5104,13 @@
         <v>689330</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="7">
         <v>932</v>
@@ -5089,13 +5119,13 @@
         <v>646357</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M28" s="7">
         <v>1917</v>
@@ -5104,18 +5134,18 @@
         <v>1335686</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5135,7 +5165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFBE2F1-5BB1-4094-A11D-4F31BD5DE16F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58012E5D-8E53-44D4-963E-D6979DCCB933}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5259,7 +5289,7 @@
         <v>1267</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>42</v>
@@ -5274,13 +5304,13 @@
         <v>3951</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>352</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>353</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>354</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5289,13 +5319,13 @@
         <v>5218</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>53</v>
+        <v>355</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5340,13 @@
         <v>110097</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H5" s="7">
         <v>182</v>
@@ -5325,13 +5355,13 @@
         <v>113899</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M5" s="7">
         <v>348</v>
@@ -5340,13 +5370,13 @@
         <v>223997</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,10 +5394,10 @@
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -5376,13 +5406,13 @@
         <v>3479</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -5391,13 +5421,13 @@
         <v>6800</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>369</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,10 +5445,10 @@
         <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5430,10 +5460,10 @@
         <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>372</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5445,10 +5475,10 @@
         <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5493,13 @@
         <v>114685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>195</v>
@@ -5478,13 +5508,13 @@
         <v>121329</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>368</v>
@@ -5493,18 +5523,18 @@
         <v>236015</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5552,7 +5582,7 @@
         <v>380</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>195</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5597,13 @@
         <v>206393</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H10" s="7">
         <v>268</v>
@@ -5582,13 +5612,13 @@
         <v>171081</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M10" s="7">
         <v>571</v>
@@ -5597,13 +5627,13 @@
         <v>377474</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5648,13 @@
         <v>8369</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -5633,13 +5663,13 @@
         <v>10230</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -5648,13 +5678,13 @@
         <v>18599</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5699,13 @@
         <v>666</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5684,13 +5714,13 @@
         <v>1751</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -5699,13 +5729,13 @@
         <v>2417</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,13 +5750,13 @@
         <v>223866</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>297</v>
@@ -5735,13 +5765,13 @@
         <v>188373</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>626</v>
@@ -5750,18 +5780,18 @@
         <v>412239</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5773,13 +5803,13 @@
         <v>11917</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>407</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>408</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>409</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -5788,13 +5818,13 @@
         <v>6015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -5803,13 +5833,13 @@
         <v>17932</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5854,13 @@
         <v>138872</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H15" s="7">
         <v>204</v>
@@ -5839,13 +5869,13 @@
         <v>142650</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M15" s="7">
         <v>396</v>
@@ -5854,13 +5884,13 @@
         <v>281522</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5905,13 @@
         <v>15072</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -5890,13 +5920,13 @@
         <v>14946</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>423</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -5905,13 +5935,13 @@
         <v>30017</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5926,13 +5956,13 @@
         <v>2594</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5941,13 +5971,13 @@
         <v>3409</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5956,13 +5986,13 @@
         <v>6003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>433</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,13 +6007,13 @@
         <v>168454</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
         <v>240</v>
@@ -5992,13 +6022,13 @@
         <v>167020</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
         <v>475</v>
@@ -6007,18 +6037,18 @@
         <v>335474</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6030,13 +6060,13 @@
         <v>17794</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>437</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -6045,13 +6075,13 @@
         <v>9005</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -6060,13 +6090,13 @@
         <v>26799</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>443</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,13 +6111,13 @@
         <v>119494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H20" s="7">
         <v>181</v>
@@ -6096,13 +6126,13 @@
         <v>128526</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="M20" s="7">
         <v>342</v>
@@ -6111,13 +6141,13 @@
         <v>248020</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6162,13 @@
         <v>19703</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -6147,13 +6177,13 @@
         <v>17757</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -6162,13 +6192,13 @@
         <v>37459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>458</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,13 +6213,13 @@
         <v>3402</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>460</v>
+        <v>184</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -6198,13 +6228,13 @@
         <v>1211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>401</v>
+        <v>465</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -6213,13 +6243,13 @@
         <v>4614</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,13 +6264,13 @@
         <v>160392</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>222</v>
@@ -6249,13 +6279,13 @@
         <v>156500</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>438</v>
@@ -6264,13 +6294,13 @@
         <v>316892</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6317,13 @@
         <v>39415</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -6302,13 +6332,13 @@
         <v>24282</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>469</v>
+        <v>254</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M24" s="7">
         <v>93</v>
@@ -6317,13 +6347,13 @@
         <v>63697</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>473</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6368,13 @@
         <v>574856</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H25" s="7">
         <v>835</v>
@@ -6353,13 +6383,13 @@
         <v>556157</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M25" s="7">
         <v>1657</v>
@@ -6368,13 +6398,13 @@
         <v>1131013</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6419,13 @@
         <v>46465</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -6404,13 +6434,13 @@
         <v>46411</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>87</v>
+        <v>439</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M26" s="7">
         <v>137</v>
@@ -6419,13 +6449,13 @@
         <v>92876</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,13 +6470,13 @@
         <v>6661</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>193</v>
+        <v>492</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -6455,13 +6485,13 @@
         <v>6372</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
       <c r="M27" s="7">
         <v>20</v>
@@ -6470,13 +6500,13 @@
         <v>13033</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>492</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>399</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,13 +6521,13 @@
         <v>667398</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="7">
         <v>954</v>
@@ -6506,13 +6536,13 @@
         <v>633222</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M28" s="7">
         <v>1907</v>
@@ -6521,18 +6551,18 @@
         <v>1300620</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6552,7 +6582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF4D4B1-23A4-4F02-923F-B07CD3843F92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE36D7DD-51B8-4A0C-B2E0-966AFEB337F8}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6569,7 +6599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6679,10 +6709,10 @@
         <v>42</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6691,13 +6721,13 @@
         <v>1967</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>495</v>
+        <v>402</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -6706,13 +6736,13 @@
         <v>1967</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6757,13 @@
         <v>54512</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>61</v>
+        <v>484</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
@@ -6742,13 +6772,13 @@
         <v>53886</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="M5" s="7">
         <v>211</v>
@@ -6757,13 +6787,13 @@
         <v>108397</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6808,13 @@
         <v>3426</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>101</v>
+        <v>512</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6793,13 +6823,13 @@
         <v>1516</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>511</v>
+        <v>143</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -6808,13 +6838,13 @@
         <v>4942</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,10 +6862,10 @@
         <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6847,10 +6877,10 @@
         <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6862,10 +6892,10 @@
         <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,13 +6910,13 @@
         <v>57938</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>109</v>
@@ -6895,13 +6925,13 @@
         <v>57369</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>224</v>
@@ -6910,18 +6940,18 @@
         <v>115306</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -6933,13 +6963,13 @@
         <v>11266</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>410</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -6948,13 +6978,13 @@
         <v>10662</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>521</v>
+        <v>136</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -6963,13 +6993,13 @@
         <v>21928</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,13 +7014,13 @@
         <v>151318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H10" s="7">
         <v>231</v>
@@ -6999,13 +7029,13 @@
         <v>142044</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M10" s="7">
         <v>469</v>
@@ -7014,13 +7044,13 @@
         <v>293361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7065,13 @@
         <v>10639</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>487</v>
+        <v>535</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -7050,13 +7080,13 @@
         <v>5900</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>538</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>536</v>
+        <v>435</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>537</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -7065,13 +7095,13 @@
         <v>16539</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>335</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7116,13 @@
         <v>1348</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -7101,13 +7131,13 @@
         <v>159</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>489</v>
+        <v>213</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7116,13 +7146,13 @@
         <v>1507</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>542</v>
+        <v>277</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>544</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,13 +7167,13 @@
         <v>174571</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>258</v>
@@ -7152,13 +7182,13 @@
         <v>158765</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>532</v>
@@ -7167,18 +7197,18 @@
         <v>333335</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7196,7 +7226,7 @@
         <v>546</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>126</v>
+        <v>547</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -7205,10 +7235,10 @@
         <v>19155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>548</v>
+        <v>489</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>549</v>
@@ -7220,13 +7250,13 @@
         <v>33817</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>550</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7271,13 @@
         <v>164741</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>233</v>
+        <v>552</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H15" s="7">
         <v>182</v>
@@ -7256,13 +7286,13 @@
         <v>136018</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M15" s="7">
         <v>381</v>
@@ -7271,13 +7301,13 @@
         <v>300760</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,13 +7322,13 @@
         <v>21619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>560</v>
+        <v>485</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -7307,13 +7337,13 @@
         <v>18633</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -7322,13 +7352,13 @@
         <v>40252</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>565</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,13 +7373,13 @@
         <v>1455</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>566</v>
+        <v>37</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -7358,13 +7388,13 @@
         <v>703</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>568</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -7379,7 +7409,7 @@
         <v>570</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>251</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,13 +7424,13 @@
         <v>202478</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
         <v>231</v>
@@ -7409,13 +7439,13 @@
         <v>174510</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
         <v>474</v>
@@ -7424,18 +7454,18 @@
         <v>376988</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7447,13 +7477,13 @@
         <v>39291</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>573</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -7462,13 +7492,13 @@
         <v>25417</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>562</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -7477,13 +7507,13 @@
         <v>64708</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,13 +7528,13 @@
         <v>224018</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H20" s="7">
         <v>270</v>
@@ -7513,13 +7543,13 @@
         <v>207890</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>585</v>
       </c>
       <c r="M20" s="7">
         <v>537</v>
@@ -7528,13 +7558,13 @@
         <v>431908</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,13 +7579,13 @@
         <v>19475</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>586</v>
+        <v>412</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>224</v>
+        <v>472</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H21" s="7">
         <v>23</v>
@@ -7564,13 +7594,13 @@
         <v>17393</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>591</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
@@ -7579,13 +7609,13 @@
         <v>36868</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,13 +7630,13 @@
         <v>4356</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>595</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -7615,13 +7645,13 @@
         <v>8738</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -7630,13 +7660,13 @@
         <v>13094</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>43</v>
+        <v>599</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,13 +7681,13 @@
         <v>287140</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>341</v>
@@ -7666,13 +7696,13 @@
         <v>259438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>681</v>
@@ -7681,13 +7711,13 @@
         <v>546578</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,13 +7734,13 @@
         <v>65219</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>601</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>139</v>
+        <v>602</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>457</v>
       </c>
       <c r="H24" s="7">
         <v>82</v>
@@ -7719,13 +7749,13 @@
         <v>57200</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>603</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>483</v>
+        <v>604</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="M24" s="7">
         <v>163</v>
@@ -7734,13 +7764,13 @@
         <v>122420</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7755,13 +7785,13 @@
         <v>594590</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>603</v>
+        <v>64</v>
       </c>
       <c r="H25" s="7">
         <v>786</v>
@@ -7770,13 +7800,13 @@
         <v>539837</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>558</v>
+        <v>611</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="M25" s="7">
         <v>1598</v>
@@ -7785,13 +7815,13 @@
         <v>1134427</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7806,13 +7836,13 @@
         <v>55160</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>258</v>
+        <v>618</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>287</v>
+        <v>619</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -7821,13 +7851,13 @@
         <v>43442</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>245</v>
+        <v>621</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>128</v>
@@ -7836,13 +7866,13 @@
         <v>98602</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>612</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7857,13 +7887,13 @@
         <v>7158</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>613</v>
+        <v>494</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -7872,13 +7902,13 @@
         <v>9601</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>210</v>
+        <v>623</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>565</v>
+        <v>207</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>283</v>
+        <v>624</v>
       </c>
       <c r="M27" s="7">
         <v>22</v>
@@ -7887,13 +7917,13 @@
         <v>16759</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>616</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7908,13 +7938,13 @@
         <v>722127</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="7">
         <v>939</v>
@@ -7923,13 +7953,13 @@
         <v>650081</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M28" s="7">
         <v>1911</v>
@@ -7938,18 +7968,18 @@
         <v>1372208</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
